--- a/DecTreeLearningCurve.xlsx
+++ b/DecTreeLearningCurve.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -121,6 +121,36 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Learning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curve for Assignment I Part II</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -301,11 +331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259885376"/>
-        <c:axId val="259885768"/>
+        <c:axId val="256675096"/>
+        <c:axId val="256646176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259885376"/>
+        <c:axId val="256675096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259885768"/>
+        <c:crossAx val="256646176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -356,7 +386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259885768"/>
+        <c:axId val="256646176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259885376"/>
+        <c:crossAx val="256675096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,7 +1175,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
